--- a/Vignettes/Identification and Visualization in Top-Down Yeast Proteoform Data/calibrated_identification_files/05-29-17_B7A_yeast_td_redo_fract3_rep2_MS1_1_calibrated.xlsx
+++ b/Vignettes/Identification and Visualization in Top-Down Yeast Proteoform Data/calibrated_identification_files/05-29-17_B7A_yeast_td_redo_fract3_rep2_MS1_1_calibrated.xlsx
@@ -727,7 +727,7 @@
         <x:v>14878.75</x:v>
       </x:c>
       <x:c r="D4" s="6" t="n">
-        <x:v>985.59367</x:v>
+        <x:v>985.59258</x:v>
       </x:c>
       <x:c r="E4" s="6" t="n">
         <x:v>6892.1376</x:v>
@@ -741,7 +741,7 @@
         <x:v>30140.04</x:v>
       </x:c>
       <x:c r="D5" s="6" t="n">
-        <x:v>862.52039</x:v>
+        <x:v>862.51948</x:v>
       </x:c>
       <x:c r="E5" s="6" t="n">
         <x:v>6892.146</x:v>
@@ -755,7 +755,7 @@
         <x:v>16676.55</x:v>
       </x:c>
       <x:c r="D6" s="6" t="n">
-        <x:v>766.79672</x:v>
+        <x:v>766.79595</x:v>
       </x:c>
       <x:c r="E6" s="6" t="n">
         <x:v>6892.1413</x:v>
@@ -818,7 +818,7 @@
         <x:v>16310.59</x:v>
       </x:c>
       <x:c r="D9" s="6" t="n">
-        <x:v>985.5934</x:v>
+        <x:v>985.59231</x:v>
       </x:c>
       <x:c r="E9" s="6" t="n">
         <x:v>6892.1388</x:v>
@@ -832,7 +832,7 @@
         <x:v>27362.72</x:v>
       </x:c>
       <x:c r="D10" s="6" t="n">
-        <x:v>862.52015</x:v>
+        <x:v>862.51924</x:v>
       </x:c>
       <x:c r="E10" s="6" t="n">
         <x:v>6892.1418</x:v>
@@ -846,7 +846,7 @@
         <x:v>14076.94</x:v>
       </x:c>
       <x:c r="D11" s="6" t="n">
-        <x:v>766.79651</x:v>
+        <x:v>766.79574</x:v>
       </x:c>
       <x:c r="E11" s="6" t="n">
         <x:v>6892.1403</x:v>
@@ -909,7 +909,7 @@
         <x:v>14041.03</x:v>
       </x:c>
       <x:c r="D14" s="6" t="n">
-        <x:v>985.59422</x:v>
+        <x:v>985.59312</x:v>
       </x:c>
       <x:c r="E14" s="6" t="n">
         <x:v>6892.1372</x:v>
@@ -923,7 +923,7 @@
         <x:v>25817.64</x:v>
       </x:c>
       <x:c r="D15" s="6" t="n">
-        <x:v>862.52087</x:v>
+        <x:v>862.51995</x:v>
       </x:c>
       <x:c r="E15" s="6" t="n">
         <x:v>6892.1388</x:v>
@@ -937,7 +937,7 @@
         <x:v>14125.97</x:v>
       </x:c>
       <x:c r="D16" s="6" t="n">
-        <x:v>766.79715</x:v>
+        <x:v>766.79637</x:v>
       </x:c>
       <x:c r="E16" s="6" t="n">
         <x:v>6892.1389</x:v>
@@ -1000,7 +1000,7 @@
         <x:v>13299.48</x:v>
       </x:c>
       <x:c r="D19" s="6" t="n">
-        <x:v>985.59328</x:v>
+        <x:v>985.5922</x:v>
       </x:c>
       <x:c r="E19" s="6" t="n">
         <x:v>6892.1449</x:v>
@@ -1014,7 +1014,7 @@
         <x:v>26615.04</x:v>
       </x:c>
       <x:c r="D20" s="6" t="n">
-        <x:v>862.52004</x:v>
+        <x:v>862.51913</x:v>
       </x:c>
       <x:c r="E20" s="6" t="n">
         <x:v>6892.1482</x:v>
@@ -1028,7 +1028,7 @@
         <x:v>12010.62</x:v>
       </x:c>
       <x:c r="D21" s="6" t="n">
-        <x:v>766.79641</x:v>
+        <x:v>766.79564</x:v>
       </x:c>
       <x:c r="E21" s="6" t="n">
         <x:v>6892.1433</x:v>
@@ -1091,7 +1091,7 @@
         <x:v>13299.48</x:v>
       </x:c>
       <x:c r="D24" s="6" t="n">
-        <x:v>985.59328</x:v>
+        <x:v>985.5922</x:v>
       </x:c>
       <x:c r="E24" s="6" t="n">
         <x:v>6892.1449</x:v>
@@ -1105,7 +1105,7 @@
         <x:v>26615.04</x:v>
       </x:c>
       <x:c r="D25" s="6" t="n">
-        <x:v>862.52004</x:v>
+        <x:v>862.51913</x:v>
       </x:c>
       <x:c r="E25" s="6" t="n">
         <x:v>6892.1482</x:v>
@@ -1119,7 +1119,7 @@
         <x:v>12010.62</x:v>
       </x:c>
       <x:c r="D26" s="6" t="n">
-        <x:v>766.79641</x:v>
+        <x:v>766.79564</x:v>
       </x:c>
       <x:c r="E26" s="6" t="n">
         <x:v>6892.1433</x:v>
@@ -1182,7 +1182,7 @@
         <x:v>12109.44</x:v>
       </x:c>
       <x:c r="D29" s="6" t="n">
-        <x:v>985.4503</x:v>
+        <x:v>985.4492</x:v>
       </x:c>
       <x:c r="E29" s="6" t="n">
         <x:v>6891.1334</x:v>
@@ -1196,7 +1196,7 @@
         <x:v>23157.57</x:v>
       </x:c>
       <x:c r="D30" s="6" t="n">
-        <x:v>862.39494</x:v>
+        <x:v>862.39402</x:v>
       </x:c>
       <x:c r="E30" s="6" t="n">
         <x:v>6891.1245</x:v>
@@ -1210,7 +1210,7 @@
         <x:v>14324.1</x:v>
       </x:c>
       <x:c r="D31" s="6" t="n">
-        <x:v>766.68521</x:v>
+        <x:v>766.68443</x:v>
       </x:c>
       <x:c r="E31" s="6" t="n">
         <x:v>6891.1298</x:v>
@@ -1273,7 +1273,7 @@
         <x:v>14342.36</x:v>
       </x:c>
       <x:c r="D34" s="6" t="n">
-        <x:v>985.59376</x:v>
+        <x:v>985.59268</x:v>
       </x:c>
       <x:c r="E34" s="6" t="n">
         <x:v>6892.1472</x:v>
@@ -1287,7 +1287,7 @@
         <x:v>21671.97</x:v>
       </x:c>
       <x:c r="D35" s="6" t="n">
-        <x:v>862.52047</x:v>
+        <x:v>862.51957</x:v>
       </x:c>
       <x:c r="E35" s="6" t="n">
         <x:v>6892.1482</x:v>
@@ -1301,7 +1301,7 @@
         <x:v>11885.8</x:v>
       </x:c>
       <x:c r="D36" s="6" t="n">
-        <x:v>766.79679</x:v>
+        <x:v>766.79603</x:v>
       </x:c>
       <x:c r="E36" s="6" t="n">
         <x:v>6892.1353</x:v>
@@ -1364,7 +1364,7 @@
         <x:v>11135.87</x:v>
       </x:c>
       <x:c r="D39" s="6" t="n">
-        <x:v>985.5962</x:v>
+        <x:v>985.59514</x:v>
       </x:c>
       <x:c r="E39" s="6" t="n">
         <x:v>6892.1428</x:v>
@@ -1378,7 +1378,7 @@
         <x:v>19004.76</x:v>
       </x:c>
       <x:c r="D40" s="6" t="n">
-        <x:v>862.5226</x:v>
+        <x:v>862.52172</x:v>
       </x:c>
       <x:c r="E40" s="6" t="n">
         <x:v>6892.1479</x:v>
@@ -1392,7 +1392,7 @@
         <x:v>18621.61</x:v>
       </x:c>
       <x:c r="D41" s="6" t="n">
-        <x:v>766.79869</x:v>
+        <x:v>766.79795</x:v>
       </x:c>
       <x:c r="E41" s="6" t="n">
         <x:v>6892.1559</x:v>
@@ -1455,7 +1455,7 @@
         <x:v>12055.35</x:v>
       </x:c>
       <x:c r="D44" s="6" t="n">
-        <x:v>985.45117</x:v>
+        <x:v>985.45007</x:v>
       </x:c>
       <x:c r="E44" s="6" t="n">
         <x:v>6891.1316</x:v>
@@ -1469,7 +1469,7 @@
         <x:v>21536.54</x:v>
       </x:c>
       <x:c r="D45" s="6" t="n">
-        <x:v>862.3957</x:v>
+        <x:v>862.39478</x:v>
       </x:c>
       <x:c r="E45" s="6" t="n">
         <x:v>6891.1302</x:v>
@@ -1483,7 +1483,7 @@
         <x:v>12860.43</x:v>
       </x:c>
       <x:c r="D46" s="6" t="n">
-        <x:v>766.68588</x:v>
+        <x:v>766.6851</x:v>
       </x:c>
       <x:c r="E46" s="6" t="n">
         <x:v>6891.1331</x:v>
@@ -1546,7 +1546,7 @@
         <x:v>13615.93</x:v>
       </x:c>
       <x:c r="D49" s="6" t="n">
-        <x:v>985.59375</x:v>
+        <x:v>985.59267</x:v>
       </x:c>
       <x:c r="E49" s="6" t="n">
         <x:v>6892.1462</x:v>
@@ -1560,7 +1560,7 @@
         <x:v>22662.34</x:v>
       </x:c>
       <x:c r="D50" s="6" t="n">
-        <x:v>862.52045</x:v>
+        <x:v>862.51954</x:v>
       </x:c>
       <x:c r="E50" s="6" t="n">
         <x:v>6892.1486</x:v>
@@ -1574,7 +1574,7 @@
         <x:v>9415.19</x:v>
       </x:c>
       <x:c r="D51" s="6" t="n">
-        <x:v>766.79678</x:v>
+        <x:v>766.79601</x:v>
       </x:c>
       <x:c r="E51" s="6" t="n">
         <x:v>6892.138</x:v>
@@ -1637,7 +1637,7 @@
         <x:v>12217.41</x:v>
       </x:c>
       <x:c r="D54" s="6" t="n">
-        <x:v>985.59469</x:v>
+        <x:v>985.59361</x:v>
       </x:c>
       <x:c r="E54" s="6" t="n">
         <x:v>6892.1415</x:v>
@@ -1651,7 +1651,7 @@
         <x:v>20906.83</x:v>
       </x:c>
       <x:c r="D55" s="6" t="n">
-        <x:v>862.52128</x:v>
+        <x:v>862.52038</x:v>
       </x:c>
       <x:c r="E55" s="6" t="n">
         <x:v>6892.1459</x:v>
@@ -1665,7 +1665,7 @@
         <x:v>12009.5</x:v>
       </x:c>
       <x:c r="D56" s="6" t="n">
-        <x:v>766.79751</x:v>
+        <x:v>766.79675</x:v>
       </x:c>
       <x:c r="E56" s="6" t="n">
         <x:v>6892.1379</x:v>
@@ -1728,7 +1728,7 @@
         <x:v>9078.16</x:v>
       </x:c>
       <x:c r="D59" s="6" t="n">
-        <x:v>985.59457</x:v>
+        <x:v>985.5935</x:v>
       </x:c>
       <x:c r="E59" s="6" t="n">
         <x:v>6892.135</x:v>
@@ -1742,7 +1742,7 @@
         <x:v>24180.7</x:v>
       </x:c>
       <x:c r="D60" s="6" t="n">
-        <x:v>862.52118</x:v>
+        <x:v>862.52029</x:v>
       </x:c>
       <x:c r="E60" s="6" t="n">
         <x:v>6892.137</x:v>
@@ -1756,7 +1756,7 @@
         <x:v>12035.7</x:v>
       </x:c>
       <x:c r="D61" s="6" t="n">
-        <x:v>766.79742</x:v>
+        <x:v>766.79667</x:v>
       </x:c>
       <x:c r="E61" s="6" t="n">
         <x:v>6892.1349</x:v>
@@ -1819,7 +1819,7 @@
         <x:v>10027.53</x:v>
       </x:c>
       <x:c r="D64" s="6" t="n">
-        <x:v>985.59532</x:v>
+        <x:v>985.59426</x:v>
       </x:c>
       <x:c r="E64" s="6" t="n">
         <x:v>6892.142</x:v>
@@ -1833,7 +1833,7 @@
         <x:v>16007.6</x:v>
       </x:c>
       <x:c r="D65" s="6" t="n">
-        <x:v>862.52183</x:v>
+        <x:v>862.52095</x:v>
       </x:c>
       <x:c r="E65" s="6" t="n">
         <x:v>6892.1489</x:v>
@@ -1847,7 +1847,7 @@
         <x:v>16403.22</x:v>
       </x:c>
       <x:c r="D66" s="6" t="n">
-        <x:v>766.798</x:v>
+        <x:v>766.79726</x:v>
       </x:c>
       <x:c r="E66" s="6" t="n">
         <x:v>6892.1526</x:v>
@@ -1910,7 +1910,7 @@
         <x:v>10299.99</x:v>
       </x:c>
       <x:c r="D69" s="6" t="n">
-        <x:v>985.59476</x:v>
+        <x:v>985.59369</x:v>
       </x:c>
       <x:c r="E69" s="6" t="n">
         <x:v>6892.1289</x:v>
@@ -1924,7 +1924,7 @@
         <x:v>19414.77</x:v>
       </x:c>
       <x:c r="D70" s="6" t="n">
-        <x:v>862.52134</x:v>
+        <x:v>862.52045</x:v>
       </x:c>
       <x:c r="E70" s="6" t="n">
         <x:v>6892.1361</x:v>
@@ -1938,7 +1938,7 @@
         <x:v>12145.47</x:v>
       </x:c>
       <x:c r="D71" s="6" t="n">
-        <x:v>766.79757</x:v>
+        <x:v>766.79682</x:v>
       </x:c>
       <x:c r="E71" s="6" t="n">
         <x:v>6892.1335</x:v>
@@ -2001,7 +2001,7 @@
         <x:v>10897.31</x:v>
       </x:c>
       <x:c r="D74" s="6" t="n">
-        <x:v>985.59495</x:v>
+        <x:v>985.59388</x:v>
       </x:c>
       <x:c r="E74" s="6" t="n">
         <x:v>6892.1297</x:v>
@@ -2015,7 +2015,7 @@
         <x:v>17614.65</x:v>
       </x:c>
       <x:c r="D75" s="6" t="n">
-        <x:v>862.52151</x:v>
+        <x:v>862.52062</x:v>
       </x:c>
       <x:c r="E75" s="6" t="n">
         <x:v>6892.1368</x:v>
@@ -2029,7 +2029,7 @@
         <x:v>13170.87</x:v>
       </x:c>
       <x:c r="D76" s="6" t="n">
-        <x:v>766.79772</x:v>
+        <x:v>766.79697</x:v>
       </x:c>
       <x:c r="E76" s="6" t="n">
         <x:v>6892.1332</x:v>
@@ -2092,7 +2092,7 @@
         <x:v>9539.48</x:v>
       </x:c>
       <x:c r="D79" s="6" t="n">
-        <x:v>985.59486</x:v>
+        <x:v>985.59379</x:v>
       </x:c>
       <x:c r="E79" s="6" t="n">
         <x:v>6892.13</x:v>
@@ -2106,7 +2106,7 @@
         <x:v>10290.13</x:v>
       </x:c>
       <x:c r="D80" s="6" t="n">
-        <x:v>862.52143</x:v>
+        <x:v>862.52054</x:v>
       </x:c>
       <x:c r="E80" s="6" t="n">
         <x:v>6892.1396</x:v>
@@ -2120,7 +2120,7 @@
         <x:v>15187.36</x:v>
       </x:c>
       <x:c r="D81" s="6" t="n">
-        <x:v>766.79765</x:v>
+        <x:v>766.7969</x:v>
       </x:c>
       <x:c r="E81" s="6" t="n">
         <x:v>6892.135</x:v>
@@ -2183,7 +2183,7 @@
         <x:v>6875.64</x:v>
       </x:c>
       <x:c r="D84" s="6" t="n">
-        <x:v>945.72493</x:v>
+        <x:v>945.72393</x:v>
       </x:c>
       <x:c r="E84" s="6" t="n">
         <x:v>6613.0492</x:v>
@@ -2197,7 +2197,7 @@
         <x:v>13463.37</x:v>
       </x:c>
       <x:c r="D85" s="6" t="n">
-        <x:v>827.63524</x:v>
+        <x:v>827.63441</x:v>
       </x:c>
       <x:c r="E85" s="6" t="n">
         <x:v>6613.0548</x:v>
@@ -2211,7 +2211,7 @@
         <x:v>11943.99</x:v>
       </x:c>
       <x:c r="D86" s="6" t="n">
-        <x:v>735.7877</x:v>
+        <x:v>735.78701</x:v>
       </x:c>
       <x:c r="E86" s="6" t="n">
         <x:v>6613.0503</x:v>
@@ -2274,7 +2274,7 @@
         <x:v>6084.68</x:v>
       </x:c>
       <x:c r="D89" s="6" t="n">
-        <x:v>985.45369</x:v>
+        <x:v>985.45263</x:v>
       </x:c>
       <x:c r="E89" s="6" t="n">
         <x:v>6891.1404</x:v>
@@ -2288,7 +2288,7 @@
         <x:v>12519.43</x:v>
       </x:c>
       <x:c r="D90" s="6" t="n">
-        <x:v>862.39791</x:v>
+        <x:v>862.39703</x:v>
       </x:c>
       <x:c r="E90" s="6" t="n">
         <x:v>6891.1456</x:v>
@@ -2302,7 +2302,7 @@
         <x:v>11368.6</x:v>
       </x:c>
       <x:c r="D91" s="6" t="n">
-        <x:v>766.68785</x:v>
+        <x:v>766.68711</x:v>
       </x:c>
       <x:c r="E91" s="6" t="n">
         <x:v>6891.1515</x:v>
@@ -2365,7 +2365,7 @@
         <x:v>9188.46</x:v>
       </x:c>
       <x:c r="D94" s="6" t="n">
-        <x:v>985.59391</x:v>
+        <x:v>985.59297</x:v>
       </x:c>
       <x:c r="E94" s="6" t="n">
         <x:v>6892.1376</x:v>
@@ -2379,7 +2379,7 @@
         <x:v>10960.5</x:v>
       </x:c>
       <x:c r="D95" s="6" t="n">
-        <x:v>862.5206</x:v>
+        <x:v>862.51983</x:v>
       </x:c>
       <x:c r="E95" s="6" t="n">
         <x:v>6892.139</x:v>
@@ -2393,7 +2393,7 @@
         <x:v>8889.44</x:v>
       </x:c>
       <x:c r="D96" s="6" t="n">
-        <x:v>766.7969</x:v>
+        <x:v>766.79627</x:v>
       </x:c>
       <x:c r="E96" s="6" t="n">
         <x:v>6892.1367</x:v>
@@ -2456,7 +2456,7 @@
         <x:v>6966.89</x:v>
       </x:c>
       <x:c r="D99" s="6" t="n">
-        <x:v>985.59351</x:v>
+        <x:v>985.59257</x:v>
       </x:c>
       <x:c r="E99" s="6" t="n">
         <x:v>6892.1347</x:v>
@@ -2470,7 +2470,7 @@
         <x:v>11878.38</x:v>
       </x:c>
       <x:c r="D100" s="6" t="n">
-        <x:v>862.52024</x:v>
+        <x:v>862.51947</x:v>
       </x:c>
       <x:c r="E100" s="6" t="n">
         <x:v>6892.1394</x:v>
@@ -2484,7 +2484,7 @@
         <x:v>9137.67</x:v>
       </x:c>
       <x:c r="D101" s="6" t="n">
-        <x:v>766.79659</x:v>
+        <x:v>766.79596</x:v>
       </x:c>
       <x:c r="E101" s="6" t="n">
         <x:v>6892.1335</x:v>
@@ -2547,7 +2547,7 @@
         <x:v>7704.74</x:v>
       </x:c>
       <x:c r="D104" s="6" t="n">
-        <x:v>985.5946</x:v>
+        <x:v>985.59355</x:v>
       </x:c>
       <x:c r="E104" s="6" t="n">
         <x:v>6892.149</x:v>
@@ -2561,7 +2561,7 @@
         <x:v>11446.69</x:v>
       </x:c>
       <x:c r="D105" s="6" t="n">
-        <x:v>862.5212</x:v>
+        <x:v>862.52033</x:v>
       </x:c>
       <x:c r="E105" s="6" t="n">
         <x:v>6892.1525</x:v>
@@ -2575,7 +2575,7 @@
         <x:v>6803.56</x:v>
       </x:c>
       <x:c r="D106" s="6" t="n">
-        <x:v>766.79744</x:v>
+        <x:v>766.79671</x:v>
       </x:c>
       <x:c r="E106" s="6" t="n">
         <x:v>6892.1485</x:v>
@@ -2638,7 +2638,7 @@
         <x:v>7704.74</x:v>
       </x:c>
       <x:c r="D109" s="6" t="n">
-        <x:v>985.5946</x:v>
+        <x:v>985.59355</x:v>
       </x:c>
       <x:c r="E109" s="6" t="n">
         <x:v>6892.149</x:v>
@@ -2652,7 +2652,7 @@
         <x:v>11446.69</x:v>
       </x:c>
       <x:c r="D110" s="6" t="n">
-        <x:v>862.5212</x:v>
+        <x:v>862.52033</x:v>
       </x:c>
       <x:c r="E110" s="6" t="n">
         <x:v>6892.1525</x:v>
@@ -2666,7 +2666,7 @@
         <x:v>6803.56</x:v>
       </x:c>
       <x:c r="D111" s="6" t="n">
-        <x:v>766.79744</x:v>
+        <x:v>766.79671</x:v>
       </x:c>
       <x:c r="E111" s="6" t="n">
         <x:v>6892.1485</x:v>
@@ -2729,7 +2729,7 @@
         <x:v>4602.75</x:v>
       </x:c>
       <x:c r="D114" s="6" t="n">
-        <x:v>985.45377</x:v>
+        <x:v>985.45272</x:v>
       </x:c>
       <x:c r="E114" s="6" t="n">
         <x:v>6891.1434</x:v>
@@ -2743,7 +2743,7 @@
         <x:v>11714.09</x:v>
       </x:c>
       <x:c r="D115" s="6" t="n">
-        <x:v>862.39797</x:v>
+        <x:v>862.3971</x:v>
       </x:c>
       <x:c r="E115" s="6" t="n">
         <x:v>6891.1444</x:v>
@@ -2757,7 +2757,7 @@
         <x:v>7865.25</x:v>
       </x:c>
       <x:c r="D116" s="6" t="n">
-        <x:v>766.6879</x:v>
+        <x:v>766.68717</x:v>
       </x:c>
       <x:c r="E116" s="6" t="n">
         <x:v>6891.15</x:v>
@@ -2820,7 +2820,7 @@
         <x:v>6742.86</x:v>
       </x:c>
       <x:c r="D119" s="6" t="n">
-        <x:v>985.59456</x:v>
+        <x:v>985.59363</x:v>
       </x:c>
       <x:c r="E119" s="6" t="n">
         <x:v>6892.1342</x:v>
@@ -2834,7 +2834,7 @@
         <x:v>7758.1</x:v>
       </x:c>
       <x:c r="D120" s="6" t="n">
-        <x:v>862.52116</x:v>
+        <x:v>862.5204</x:v>
       </x:c>
       <x:c r="E120" s="6" t="n">
         <x:v>6892.1373</x:v>
@@ -2848,7 +2848,7 @@
         <x:v>7031.96</x:v>
       </x:c>
       <x:c r="D121" s="6" t="n">
-        <x:v>766.79741</x:v>
+        <x:v>766.79679</x:v>
       </x:c>
       <x:c r="E121" s="6" t="n">
         <x:v>6892.1364</x:v>
@@ -2911,7 +2911,7 @@
         <x:v>4157.51</x:v>
       </x:c>
       <x:c r="D124" s="6" t="n">
-        <x:v>985.4509</x:v>
+        <x:v>985.44985</x:v>
       </x:c>
       <x:c r="E124" s="6" t="n">
         <x:v>6891.1456</x:v>
@@ -2925,7 +2925,7 @@
         <x:v>10192.52</x:v>
       </x:c>
       <x:c r="D125" s="6" t="n">
-        <x:v>862.39546</x:v>
+        <x:v>862.39459</x:v>
       </x:c>
       <x:c r="E125" s="6" t="n">
         <x:v>6891.1472</x:v>
@@ -2939,7 +2939,7 @@
         <x:v>5751.06</x:v>
       </x:c>
       <x:c r="D126" s="6" t="n">
-        <x:v>766.68568</x:v>
+        <x:v>766.68495</x:v>
       </x:c>
       <x:c r="E126" s="6" t="n">
         <x:v>6891.1467</x:v>
@@ -3002,7 +3002,7 @@
         <x:v>4030.12</x:v>
       </x:c>
       <x:c r="D129" s="6" t="n">
-        <x:v>945.86711</x:v>
+        <x:v>945.86609</x:v>
       </x:c>
       <x:c r="E129" s="6" t="n">
         <x:v>6614.0481</x:v>
@@ -3016,7 +3016,7 @@
         <x:v>7685.28</x:v>
       </x:c>
       <x:c r="D130" s="6" t="n">
-        <x:v>827.75965</x:v>
+        <x:v>827.75879</x:v>
       </x:c>
       <x:c r="E130" s="6" t="n">
         <x:v>6614.0522</x:v>
@@ -3030,7 +3030,7 @@
         <x:v>6846.81</x:v>
       </x:c>
       <x:c r="D131" s="6" t="n">
-        <x:v>735.89828</x:v>
+        <x:v>735.89756</x:v>
       </x:c>
       <x:c r="E131" s="6" t="n">
         <x:v>6614.0611</x:v>
@@ -3093,7 +3093,7 @@
         <x:v>4030.12</x:v>
       </x:c>
       <x:c r="D134" s="6" t="n">
-        <x:v>945.86711</x:v>
+        <x:v>945.86609</x:v>
       </x:c>
       <x:c r="E134" s="6" t="n">
         <x:v>6614.0481</x:v>
@@ -3107,7 +3107,7 @@
         <x:v>7685.28</x:v>
       </x:c>
       <x:c r="D135" s="6" t="n">
-        <x:v>827.75965</x:v>
+        <x:v>827.75879</x:v>
       </x:c>
       <x:c r="E135" s="6" t="n">
         <x:v>6614.0522</x:v>
@@ -3121,7 +3121,7 @@
         <x:v>6846.81</x:v>
       </x:c>
       <x:c r="D136" s="6" t="n">
-        <x:v>735.89828</x:v>
+        <x:v>735.89756</x:v>
       </x:c>
       <x:c r="E136" s="6" t="n">
         <x:v>6614.0611</x:v>
